--- a/Tableau/Tableau数据源/orders1710.xlsx
+++ b/Tableau/Tableau数据源/orders1710.xlsx
@@ -1,29 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【Works】\教学工作\项目制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPython\miniweb\dataAnalysis\dataAnalysis\Tableau\Tableau数据源\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E7E16-0A47-45BF-B583-1F237FA8F39E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24480" windowHeight="11970"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
+    <sheet name="kf线索" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Orders!$B$1:$O$454</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4505" uniqueCount="1874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4530" uniqueCount="1885">
   <si>
     <t>CRMID</t>
   </si>
@@ -5646,13 +5655,67 @@
   <si>
     <t>实际成交金额</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <r>
+      <t>线索类别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计数</t>
+    </r>
+  </si>
+  <si>
+    <t>孙蝶妃</t>
+  </si>
+  <si>
+    <t>戴　敏</t>
+  </si>
+  <si>
+    <t>丁聪华</t>
+  </si>
+  <si>
+    <t>寇　荔</t>
+  </si>
+  <si>
+    <t>张老师</t>
+  </si>
+  <si>
+    <t>朱咏娴</t>
+  </si>
+  <si>
+    <t>江　斌</t>
+  </si>
+  <si>
+    <t>古　璐</t>
+  </si>
+  <si>
+    <t>许娇翔</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5678,6 +5741,13 @@
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5706,11 +5776,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5766,7 +5838,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
@@ -5783,26 +5855,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O454" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:O454"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:O454" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:O454" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="CRMID"/>
-    <tableColumn id="2" name="订单编号"/>
-    <tableColumn id="3" name="支付方式"/>
-    <tableColumn id="4" name="合同"/>
-    <tableColumn id="5" name="合同金额"/>
-    <tableColumn id="6" name="折扣金额"/>
-    <tableColumn id="15" name="实际成交金额" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CRMID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="订单编号"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="支付方式"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="合同"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="合同金额"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="折扣金额"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="实际成交金额" dataDxfId="0">
       <calculatedColumnFormula>表1[[#This Row],[合同金额]]-表1[[#This Row],[折扣金额]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="订单创建时间"/>
-    <tableColumn id="8" name="客服"/>
-    <tableColumn id="9" name="EMS"/>
-    <tableColumn id="10" name="销售"/>
-    <tableColumn id="11" name="客户姓名"/>
-    <tableColumn id="12" name="手机"/>
-    <tableColumn id="13" name="一级渠道"/>
-    <tableColumn id="14" name="二级渠道"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="订单创建时间"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="客服"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="EMS"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="销售"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="客户姓名"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="手机"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="一级渠道"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="二级渠道"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6065,29 +6137,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="15" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="14" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6134,7 +6206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6176,7 +6248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -6218,7 +6290,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -6260,7 +6332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -6302,7 +6374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -6344,7 +6416,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6386,7 +6458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -6428,7 +6500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -6467,7 +6539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -6509,7 +6581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -6551,7 +6623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -6593,7 +6665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -6635,7 +6707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -6677,7 +6749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -6719,7 +6791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -6761,7 +6833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -6803,7 +6875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -6845,7 +6917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -6887,7 +6959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -6929,7 +7001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -6971,7 +7043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -7013,7 +7085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -7055,7 +7127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -7097,7 +7169,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -7139,7 +7211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -7181,7 +7253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -7223,7 +7295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -7265,7 +7337,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -7307,7 +7379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -7349,7 +7421,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>168</v>
       </c>
@@ -7391,7 +7463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>172</v>
       </c>
@@ -7430,7 +7502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -7472,7 +7544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>180</v>
       </c>
@@ -7514,7 +7586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>186</v>
       </c>
@@ -7559,7 +7631,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>192</v>
       </c>
@@ -7601,7 +7673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>196</v>
       </c>
@@ -7643,7 +7715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -7685,7 +7757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>205</v>
       </c>
@@ -7727,7 +7799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -7769,7 +7841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -7811,7 +7883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -7853,7 +7925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>222</v>
       </c>
@@ -7895,7 +7967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>226</v>
       </c>
@@ -7937,7 +8009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>229</v>
       </c>
@@ -7979,7 +8051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>233</v>
       </c>
@@ -8021,7 +8093,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>237</v>
       </c>
@@ -8063,7 +8135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>240</v>
       </c>
@@ -8105,7 +8177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -8147,7 +8219,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>248</v>
       </c>
@@ -8189,7 +8261,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -8231,7 +8303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>256</v>
       </c>
@@ -8273,7 +8345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>260</v>
       </c>
@@ -8315,7 +8387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>265</v>
       </c>
@@ -8357,7 +8429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>269</v>
       </c>
@@ -8399,7 +8471,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>275</v>
       </c>
@@ -8441,7 +8513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>279</v>
       </c>
@@ -8480,7 +8552,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>283</v>
       </c>
@@ -8522,7 +8594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>287</v>
       </c>
@@ -8564,7 +8636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>291</v>
       </c>
@@ -8606,7 +8678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>295</v>
       </c>
@@ -8648,7 +8720,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>302</v>
       </c>
@@ -8690,7 +8762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>306</v>
       </c>
@@ -8732,7 +8804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>312</v>
       </c>
@@ -8774,7 +8846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>316</v>
       </c>
@@ -8816,7 +8888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>320</v>
       </c>
@@ -8858,7 +8930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>324</v>
       </c>
@@ -8900,7 +8972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>328</v>
       </c>
@@ -8942,7 +9014,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>332</v>
       </c>
@@ -8984,7 +9056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>336</v>
       </c>
@@ -9026,7 +9098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>340</v>
       </c>
@@ -9068,7 +9140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>344</v>
       </c>
@@ -9107,7 +9179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>348</v>
       </c>
@@ -9149,7 +9221,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -9191,7 +9263,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>357</v>
       </c>
@@ -9233,7 +9305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>361</v>
       </c>
@@ -9275,7 +9347,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>365</v>
       </c>
@@ -9317,7 +9389,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>370</v>
       </c>
@@ -9359,7 +9431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>374</v>
       </c>
@@ -9401,7 +9473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>378</v>
       </c>
@@ -9443,7 +9515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>382</v>
       </c>
@@ -9485,7 +9557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>386</v>
       </c>
@@ -9527,7 +9599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>390</v>
       </c>
@@ -9572,7 +9644,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>394</v>
       </c>
@@ -9614,7 +9686,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>398</v>
       </c>
@@ -9653,7 +9725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>403</v>
       </c>
@@ -9692,7 +9764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>407</v>
       </c>
@@ -9734,7 +9806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>411</v>
       </c>
@@ -9776,7 +9848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>415</v>
       </c>
@@ -9818,7 +9890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>419</v>
       </c>
@@ -9860,7 +9932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>423</v>
       </c>
@@ -9902,7 +9974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>427</v>
       </c>
@@ -9941,7 +10013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>431</v>
       </c>
@@ -9980,7 +10052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>435</v>
       </c>
@@ -10022,7 +10094,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>439</v>
       </c>
@@ -10064,7 +10136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>443</v>
       </c>
@@ -10106,7 +10178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>447</v>
       </c>
@@ -10148,7 +10220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>451</v>
       </c>
@@ -10187,7 +10259,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>456</v>
       </c>
@@ -10229,7 +10301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>460</v>
       </c>
@@ -10268,7 +10340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>464</v>
       </c>
@@ -10307,7 +10379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>468</v>
       </c>
@@ -10346,7 +10418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>473</v>
       </c>
@@ -10385,7 +10457,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>477</v>
       </c>
@@ -10427,7 +10499,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>481</v>
       </c>
@@ -10469,7 +10541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>486</v>
       </c>
@@ -10511,7 +10583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>490</v>
       </c>
@@ -10550,7 +10622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>495</v>
       </c>
@@ -10592,7 +10664,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>499</v>
       </c>
@@ -10634,7 +10706,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>505</v>
       </c>
@@ -10673,7 +10745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>509</v>
       </c>
@@ -10715,7 +10787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>513</v>
       </c>
@@ -10757,7 +10829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>517</v>
       </c>
@@ -10796,7 +10868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>522</v>
       </c>
@@ -10838,7 +10910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>526</v>
       </c>
@@ -10877,7 +10949,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>532</v>
       </c>
@@ -10916,7 +10988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>536</v>
       </c>
@@ -10958,7 +11030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>540</v>
       </c>
@@ -10997,7 +11069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>544</v>
       </c>
@@ -11036,7 +11108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>549</v>
       </c>
@@ -11075,7 +11147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>553</v>
       </c>
@@ -11114,7 +11186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>557</v>
       </c>
@@ -11156,7 +11228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>561</v>
       </c>
@@ -11198,7 +11270,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>565</v>
       </c>
@@ -11240,7 +11312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>569</v>
       </c>
@@ -11282,7 +11354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>573</v>
       </c>
@@ -11324,7 +11396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>577</v>
       </c>
@@ -11363,7 +11435,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>581</v>
       </c>
@@ -11402,7 +11474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>585</v>
       </c>
@@ -11441,7 +11513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>589</v>
       </c>
@@ -11480,7 +11552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>593</v>
       </c>
@@ -11519,7 +11591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>597</v>
       </c>
@@ -11558,7 +11630,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>601</v>
       </c>
@@ -11600,7 +11672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>605</v>
       </c>
@@ -11642,7 +11714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>609</v>
       </c>
@@ -11684,7 +11756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>613</v>
       </c>
@@ -11723,7 +11795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>617</v>
       </c>
@@ -11765,7 +11837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>621</v>
       </c>
@@ -11807,7 +11879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>626</v>
       </c>
@@ -11846,7 +11918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>630</v>
       </c>
@@ -11888,7 +11960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>634</v>
       </c>
@@ -11930,7 +12002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>638</v>
       </c>
@@ -11972,7 +12044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>642</v>
       </c>
@@ -12014,7 +12086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>646</v>
       </c>
@@ -12056,7 +12128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>650</v>
       </c>
@@ -12098,7 +12170,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>654</v>
       </c>
@@ -12140,7 +12212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>658</v>
       </c>
@@ -12179,7 +12251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>662</v>
       </c>
@@ -12221,7 +12293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>667</v>
       </c>
@@ -12260,7 +12332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>671</v>
       </c>
@@ -12302,7 +12374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>675</v>
       </c>
@@ -12344,7 +12416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>680</v>
       </c>
@@ -12386,7 +12458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>684</v>
       </c>
@@ -12428,7 +12500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>688</v>
       </c>
@@ -12470,7 +12542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>692</v>
       </c>
@@ -12512,7 +12584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>696</v>
       </c>
@@ -12554,7 +12626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>700</v>
       </c>
@@ -12596,7 +12668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>704</v>
       </c>
@@ -12638,7 +12710,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>708</v>
       </c>
@@ -12683,7 +12755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>712</v>
       </c>
@@ -12725,7 +12797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>716</v>
       </c>
@@ -12770,7 +12842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>720</v>
       </c>
@@ -12815,7 +12887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>724</v>
       </c>
@@ -12857,7 +12929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>728</v>
       </c>
@@ -12899,7 +12971,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>733</v>
       </c>
@@ -12941,7 +13013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>737</v>
       </c>
@@ -12983,7 +13055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>741</v>
       </c>
@@ -13025,7 +13097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>745</v>
       </c>
@@ -13064,7 +13136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>749</v>
       </c>
@@ -13109,7 +13181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>753</v>
       </c>
@@ -13154,7 +13226,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>758</v>
       </c>
@@ -13196,7 +13268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>762</v>
       </c>
@@ -13241,7 +13313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>766</v>
       </c>
@@ -13283,7 +13355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>770</v>
       </c>
@@ -13322,7 +13394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>774</v>
       </c>
@@ -13367,7 +13439,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>778</v>
       </c>
@@ -13409,7 +13481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>782</v>
       </c>
@@ -13454,7 +13526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>786</v>
       </c>
@@ -13496,7 +13568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>790</v>
       </c>
@@ -13535,7 +13607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>794</v>
       </c>
@@ -13577,7 +13649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>798</v>
       </c>
@@ -13619,7 +13691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>802</v>
       </c>
@@ -13661,7 +13733,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>806</v>
       </c>
@@ -13703,7 +13775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>810</v>
       </c>
@@ -13745,7 +13817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>814</v>
       </c>
@@ -13787,7 +13859,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>818</v>
       </c>
@@ -13829,7 +13901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>823</v>
       </c>
@@ -13871,7 +13943,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>827</v>
       </c>
@@ -13916,7 +13988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>831</v>
       </c>
@@ -13958,7 +14030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>835</v>
       </c>
@@ -14000,7 +14072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>839</v>
       </c>
@@ -14042,7 +14114,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>843</v>
       </c>
@@ -14084,7 +14156,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>847</v>
       </c>
@@ -14126,7 +14198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>851</v>
       </c>
@@ -14168,7 +14240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>855</v>
       </c>
@@ -14210,7 +14282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>859</v>
       </c>
@@ -14252,7 +14324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>863</v>
       </c>
@@ -14291,7 +14363,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>867</v>
       </c>
@@ -14333,7 +14405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>871</v>
       </c>
@@ -14375,7 +14447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>875</v>
       </c>
@@ -14417,7 +14489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>879</v>
       </c>
@@ -14459,7 +14531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>883</v>
       </c>
@@ -14501,7 +14573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>887</v>
       </c>
@@ -14543,7 +14615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>891</v>
       </c>
@@ -14582,7 +14654,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>896</v>
       </c>
@@ -14621,7 +14693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>900</v>
       </c>
@@ -14663,7 +14735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>904</v>
       </c>
@@ -14705,7 +14777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>908</v>
       </c>
@@ -14747,7 +14819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>912</v>
       </c>
@@ -14789,7 +14861,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>916</v>
       </c>
@@ -14831,7 +14903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>920</v>
       </c>
@@ -14873,7 +14945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>923</v>
       </c>
@@ -14915,7 +14987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>926</v>
       </c>
@@ -14957,7 +15029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>929</v>
       </c>
@@ -14999,7 +15071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>932</v>
       </c>
@@ -15041,7 +15113,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>935</v>
       </c>
@@ -15086,7 +15158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>938</v>
       </c>
@@ -15128,7 +15200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>942</v>
       </c>
@@ -15170,7 +15242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>946</v>
       </c>
@@ -15212,7 +15284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>950</v>
       </c>
@@ -15254,7 +15326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>954</v>
       </c>
@@ -15296,7 +15368,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>958</v>
       </c>
@@ -15338,7 +15410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>962</v>
       </c>
@@ -15380,7 +15452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>966</v>
       </c>
@@ -15422,7 +15494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>970</v>
       </c>
@@ -15464,7 +15536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>974</v>
       </c>
@@ -15506,7 +15578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>978</v>
       </c>
@@ -15548,7 +15620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>982</v>
       </c>
@@ -15590,7 +15662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>986</v>
       </c>
@@ -15632,7 +15704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>990</v>
       </c>
@@ -15674,7 +15746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>994</v>
       </c>
@@ -15716,7 +15788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>998</v>
       </c>
@@ -15758,7 +15830,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1002</v>
       </c>
@@ -15800,7 +15872,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1006</v>
       </c>
@@ -15842,7 +15914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1010</v>
       </c>
@@ -15884,7 +15956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1014</v>
       </c>
@@ -15926,7 +15998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1018</v>
       </c>
@@ -15968,7 +16040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1022</v>
       </c>
@@ -16010,7 +16082,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1026</v>
       </c>
@@ -16052,7 +16124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1030</v>
       </c>
@@ -16097,7 +16169,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1034</v>
       </c>
@@ -16139,7 +16211,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1038</v>
       </c>
@@ -16181,7 +16253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1042</v>
       </c>
@@ -16223,7 +16295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1046</v>
       </c>
@@ -16265,7 +16337,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1050</v>
       </c>
@@ -16307,7 +16379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1054</v>
       </c>
@@ -16352,7 +16424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1058</v>
       </c>
@@ -16397,7 +16469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1062</v>
       </c>
@@ -16439,7 +16511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1066</v>
       </c>
@@ -16481,7 +16553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1070</v>
       </c>
@@ -16526,7 +16598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1074</v>
       </c>
@@ -16568,7 +16640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1078</v>
       </c>
@@ -16610,7 +16682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1083</v>
       </c>
@@ -16652,7 +16724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1087</v>
       </c>
@@ -16694,7 +16766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1091</v>
       </c>
@@ -16736,7 +16808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1095</v>
       </c>
@@ -16778,7 +16850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1099</v>
       </c>
@@ -16820,7 +16892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1103</v>
       </c>
@@ -16862,7 +16934,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1108</v>
       </c>
@@ -16904,7 +16976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1112</v>
       </c>
@@ -16946,7 +17018,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1116</v>
       </c>
@@ -16988,7 +17060,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1120</v>
       </c>
@@ -17030,7 +17102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1124</v>
       </c>
@@ -17072,7 +17144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1128</v>
       </c>
@@ -17114,7 +17186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1134</v>
       </c>
@@ -17156,7 +17228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1138</v>
       </c>
@@ -17198,7 +17270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1142</v>
       </c>
@@ -17240,7 +17312,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1146</v>
       </c>
@@ -17282,7 +17354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1150</v>
       </c>
@@ -17324,7 +17396,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1154</v>
       </c>
@@ -17369,7 +17441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1158</v>
       </c>
@@ -17411,7 +17483,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1162</v>
       </c>
@@ -17456,7 +17528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1166</v>
       </c>
@@ -17498,7 +17570,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1170</v>
       </c>
@@ -17540,7 +17612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1174</v>
       </c>
@@ -17585,7 +17657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1178</v>
       </c>
@@ -17627,7 +17699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1183</v>
       </c>
@@ -17669,7 +17741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1187</v>
       </c>
@@ -17711,7 +17783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1191</v>
       </c>
@@ -17753,7 +17825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1195</v>
       </c>
@@ -17795,7 +17867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1199</v>
       </c>
@@ -17837,7 +17909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1203</v>
       </c>
@@ -17879,7 +17951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1207</v>
       </c>
@@ -17921,7 +17993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1212</v>
       </c>
@@ -17963,7 +18035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1216</v>
       </c>
@@ -18005,7 +18077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1219</v>
       </c>
@@ -18047,7 +18119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1222</v>
       </c>
@@ -18089,7 +18161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1225</v>
       </c>
@@ -18131,7 +18203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1229</v>
       </c>
@@ -18173,7 +18245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1232</v>
       </c>
@@ -18215,7 +18287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1235</v>
       </c>
@@ -18257,7 +18329,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1238</v>
       </c>
@@ -18299,7 +18371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1242</v>
       </c>
@@ -18341,7 +18413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1246</v>
       </c>
@@ -18383,7 +18455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1250</v>
       </c>
@@ -18425,7 +18497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1254</v>
       </c>
@@ -18464,7 +18536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1258</v>
       </c>
@@ -18506,7 +18578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1262</v>
       </c>
@@ -18551,7 +18623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1266</v>
       </c>
@@ -18593,7 +18665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1270</v>
       </c>
@@ -18635,7 +18707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1274</v>
       </c>
@@ -18677,7 +18749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1278</v>
       </c>
@@ -18719,7 +18791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1282</v>
       </c>
@@ -18761,7 +18833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1285</v>
       </c>
@@ -18803,7 +18875,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1289</v>
       </c>
@@ -18845,7 +18917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1293</v>
       </c>
@@ -18887,7 +18959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1297</v>
       </c>
@@ -18929,7 +19001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1301</v>
       </c>
@@ -18971,7 +19043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1305</v>
       </c>
@@ -19013,7 +19085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1309</v>
       </c>
@@ -19055,7 +19127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1313</v>
       </c>
@@ -19097,7 +19169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1317</v>
       </c>
@@ -19136,7 +19208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1321</v>
       </c>
@@ -19178,7 +19250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1325</v>
       </c>
@@ -19223,7 +19295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1328</v>
       </c>
@@ -19265,7 +19337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1332</v>
       </c>
@@ -19307,7 +19379,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1336</v>
       </c>
@@ -19349,7 +19421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1340</v>
       </c>
@@ -19391,7 +19463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1344</v>
       </c>
@@ -19433,7 +19505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1348</v>
       </c>
@@ -19475,7 +19547,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1352</v>
       </c>
@@ -19517,7 +19589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1356</v>
       </c>
@@ -19559,7 +19631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1359</v>
       </c>
@@ -19601,7 +19673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1362</v>
       </c>
@@ -19643,7 +19715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1365</v>
       </c>
@@ -19685,7 +19757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1368</v>
       </c>
@@ -19724,7 +19796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1371</v>
       </c>
@@ -19766,7 +19838,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1374</v>
       </c>
@@ -19808,7 +19880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1378</v>
       </c>
@@ -19850,7 +19922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1382</v>
       </c>
@@ -19892,7 +19964,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1386</v>
       </c>
@@ -19931,7 +20003,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1390</v>
       </c>
@@ -19973,7 +20045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1395</v>
       </c>
@@ -20015,7 +20087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1400</v>
       </c>
@@ -20057,7 +20129,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1404</v>
       </c>
@@ -20099,7 +20171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1408</v>
       </c>
@@ -20141,7 +20213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1412</v>
       </c>
@@ -20183,7 +20255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1416</v>
       </c>
@@ -20225,7 +20297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1420</v>
       </c>
@@ -20267,7 +20339,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1424</v>
       </c>
@@ -20309,7 +20381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1428</v>
       </c>
@@ -20351,7 +20423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1432</v>
       </c>
@@ -20396,7 +20468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1435</v>
       </c>
@@ -20438,7 +20510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1438</v>
       </c>
@@ -20480,7 +20552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1441</v>
       </c>
@@ -20522,7 +20594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1444</v>
       </c>
@@ -20564,7 +20636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1447</v>
       </c>
@@ -20609,7 +20681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1450</v>
       </c>
@@ -20651,7 +20723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1453</v>
       </c>
@@ -20693,7 +20765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1456</v>
       </c>
@@ -20735,7 +20807,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1460</v>
       </c>
@@ -20777,7 +20849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1464</v>
       </c>
@@ -20822,7 +20894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1468</v>
       </c>
@@ -20867,7 +20939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1472</v>
       </c>
@@ -20909,7 +20981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1476</v>
       </c>
@@ -20951,7 +21023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1480</v>
       </c>
@@ -20993,7 +21065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1484</v>
       </c>
@@ -21038,7 +21110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1488</v>
       </c>
@@ -21083,7 +21155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1492</v>
       </c>
@@ -21128,7 +21200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1496</v>
       </c>
@@ -21170,7 +21242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1500</v>
       </c>
@@ -21212,7 +21284,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1504</v>
       </c>
@@ -21254,7 +21326,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1507</v>
       </c>
@@ -21296,7 +21368,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1511</v>
       </c>
@@ -21341,7 +21413,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1515</v>
       </c>
@@ -21386,7 +21458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1519</v>
       </c>
@@ -21431,7 +21503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1523</v>
       </c>
@@ -21473,7 +21545,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1527</v>
       </c>
@@ -21515,7 +21587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1531</v>
       </c>
@@ -21557,7 +21629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1535</v>
       </c>
@@ -21602,7 +21674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1539</v>
       </c>
@@ -21644,7 +21716,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1543</v>
       </c>
@@ -21686,7 +21758,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1547</v>
       </c>
@@ -21728,7 +21800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1551</v>
       </c>
@@ -21770,7 +21842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1555</v>
       </c>
@@ -21812,7 +21884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1559</v>
       </c>
@@ -21854,7 +21926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1563</v>
       </c>
@@ -21899,7 +21971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1567</v>
       </c>
@@ -21944,7 +22016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1571</v>
       </c>
@@ -21986,7 +22058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1575</v>
       </c>
@@ -22028,7 +22100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1579</v>
       </c>
@@ -22070,7 +22142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1583</v>
       </c>
@@ -22115,7 +22187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1587</v>
       </c>
@@ -22157,7 +22229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1591</v>
       </c>
@@ -22202,7 +22274,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1595</v>
       </c>
@@ -22244,7 +22316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1599</v>
       </c>
@@ -22286,7 +22358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1603</v>
       </c>
@@ -22328,7 +22400,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1607</v>
       </c>
@@ -22373,7 +22445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1611</v>
       </c>
@@ -22418,7 +22490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1615</v>
       </c>
@@ -22460,7 +22532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1619</v>
       </c>
@@ -22502,7 +22574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>1623</v>
       </c>
@@ -22547,7 +22619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1627</v>
       </c>
@@ -22589,7 +22661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1631</v>
       </c>
@@ -22628,7 +22700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1635</v>
       </c>
@@ -22673,7 +22745,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1639</v>
       </c>
@@ -22715,7 +22787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1643</v>
       </c>
@@ -22760,7 +22832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1646</v>
       </c>
@@ -22802,7 +22874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1649</v>
       </c>
@@ -22844,7 +22916,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1652</v>
       </c>
@@ -22886,7 +22958,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1655</v>
       </c>
@@ -22928,7 +23000,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1658</v>
       </c>
@@ -22973,7 +23045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1661</v>
       </c>
@@ -23015,7 +23087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1664</v>
       </c>
@@ -23057,7 +23129,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>1668</v>
       </c>
@@ -23099,7 +23171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1672</v>
       </c>
@@ -23144,7 +23216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1676</v>
       </c>
@@ -23186,7 +23258,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1680</v>
       </c>
@@ -23228,7 +23300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1684</v>
       </c>
@@ -23273,7 +23345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1688</v>
       </c>
@@ -23315,7 +23387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>1692</v>
       </c>
@@ -23357,7 +23429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>1696</v>
       </c>
@@ -23399,7 +23471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1701</v>
       </c>
@@ -23444,7 +23516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1705</v>
       </c>
@@ -23489,7 +23561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1710</v>
       </c>
@@ -23531,7 +23603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1714</v>
       </c>
@@ -23573,7 +23645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1718</v>
       </c>
@@ -23615,7 +23687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1722</v>
       </c>
@@ -23660,7 +23732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1726</v>
       </c>
@@ -23702,7 +23774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>1730</v>
       </c>
@@ -23744,7 +23816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1734</v>
       </c>
@@ -23786,7 +23858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1738</v>
       </c>
@@ -23831,7 +23903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1742</v>
       </c>
@@ -23876,7 +23948,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1747</v>
       </c>
@@ -23921,7 +23993,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>1751</v>
       </c>
@@ -23963,7 +24035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1755</v>
       </c>
@@ -24005,7 +24077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1759</v>
       </c>
@@ -24047,7 +24119,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1763</v>
       </c>
@@ -24089,7 +24161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1767</v>
       </c>
@@ -24131,7 +24203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1771</v>
       </c>
@@ -24176,7 +24248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1775</v>
       </c>
@@ -24221,7 +24293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1779</v>
       </c>
@@ -24263,7 +24335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>1783</v>
       </c>
@@ -24305,7 +24377,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1787</v>
       </c>
@@ -24347,7 +24419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1791</v>
       </c>
@@ -24389,7 +24461,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1795</v>
       </c>
@@ -24434,7 +24506,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1799</v>
       </c>
@@ -24479,7 +24551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>1804</v>
       </c>
@@ -24524,7 +24596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>1808</v>
       </c>
@@ -24566,7 +24638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1813</v>
       </c>
@@ -24608,7 +24680,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1817</v>
       </c>
@@ -24650,7 +24722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1821</v>
       </c>
@@ -24692,7 +24764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1825</v>
       </c>
@@ -24734,7 +24806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1829</v>
       </c>
@@ -24779,7 +24851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1833</v>
       </c>
@@ -24821,7 +24893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1837</v>
       </c>
@@ -24863,7 +24935,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1841</v>
       </c>
@@ -24905,7 +24977,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1845</v>
       </c>
@@ -24947,7 +25019,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1849</v>
       </c>
@@ -24989,7 +25061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1853</v>
       </c>
@@ -25031,7 +25103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1857</v>
       </c>
@@ -25073,7 +25145,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1861</v>
       </c>
@@ -25115,7 +25187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1865</v>
       </c>
@@ -25157,7 +25229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1869</v>
       </c>
@@ -25209,4 +25281,210 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A61AC0D-44F8-4D8F-A4EA-067C44DC45A2}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B10">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4007</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>